--- a/02_config/scenario_pv_60_hp_60_ev_60_mixed_5_winter_perfect/agents.xlsx
+++ b/02_config/scenario_pv_60_hp_60_ev_60_mixed_5_winter_perfect/agents.xlsx
@@ -29,12 +29,12 @@
     <t>general/bus</t>
   </si>
   <si>
+    <t>general/aggregated_by</t>
+  </si>
+  <si>
     <t>general/parameters/occupants</t>
   </si>
   <si>
-    <t>general/aggregated_by</t>
-  </si>
-  <si>
     <t>general/parameters/area</t>
   </si>
   <si>
@@ -1001,7 +1001,7 @@
     <t>sfh_38</t>
   </si>
   <si>
-    <t>N4fYwGzeyWOdcYI</t>
+    <t>CwgmfB9g4gB4Sc6</t>
   </si>
   <si>
     <t>000018853.csv</t>
@@ -1544,7 +1544,7 @@
     <t>clustering_represented_group/agent_types</t>
   </si>
   <si>
-    <t>['sfh_37', 'sfh_25', 'sfh_32', 'sfh_17', 'sfh_4']</t>
+    <t>['sfh_12', 'sfh_18', 'sfh_26', 'sfh_31', 'sfh_1']</t>
   </si>
   <si>
     <t>[1]</t>
@@ -2799,11 +2799,11 @@
       <c r="E2">
         <v>21274</v>
       </c>
-      <c r="F2">
-        <v>3</v>
+      <c r="G2">
+        <v>4</v>
       </c>
       <c r="H2">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="I2">
         <v>2</v>
@@ -2812,7 +2812,7 @@
         <v>2.6</v>
       </c>
       <c r="K2">
-        <v>55</v>
+        <v>150</v>
       </c>
       <c r="L2">
         <v>1</v>
@@ -2956,7 +2956,7 @@
         <v>0</v>
       </c>
       <c r="DE2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF2" t="s">
         <v>368</v>
@@ -3148,7 +3148,7 @@
         <v>483</v>
       </c>
       <c r="IN2">
-        <v>86400</v>
+        <v>72000</v>
       </c>
       <c r="IO2">
         <v>1</v>
@@ -3199,7 +3199,7 @@
         <v>0</v>
       </c>
       <c r="JG2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ2">
         <v>0</v>
@@ -3208,7 +3208,7 @@
         <v>0</v>
       </c>
       <c r="JL2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:290">
@@ -3221,11 +3221,14 @@
       <c r="E3">
         <v>21249</v>
       </c>
-      <c r="F3">
-        <v>4</v>
+      <c r="F3" t="s">
+        <v>328</v>
+      </c>
+      <c r="G3">
+        <v>3</v>
       </c>
       <c r="H3">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="I3">
         <v>2</v>
@@ -3234,7 +3237,7 @@
         <v>2.6</v>
       </c>
       <c r="K3">
-        <v>150</v>
+        <v>55</v>
       </c>
       <c r="L3">
         <v>1</v>
@@ -3393,7 +3396,7 @@
         <v>50</v>
       </c>
       <c r="DE3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF3" t="s">
         <v>368</v>
@@ -3648,7 +3651,7 @@
         <v>483</v>
       </c>
       <c r="IN3">
-        <v>72000</v>
+        <v>43200</v>
       </c>
       <c r="IO3">
         <v>1</v>
@@ -3699,7 +3702,7 @@
         <v>0</v>
       </c>
       <c r="JG3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ3">
         <v>0</v>
@@ -3708,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="JL3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:290">
@@ -3721,11 +3724,11 @@
       <c r="E4">
         <v>21166</v>
       </c>
-      <c r="F4">
-        <v>3</v>
+      <c r="G4">
+        <v>4</v>
       </c>
       <c r="H4">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="I4">
         <v>2</v>
@@ -3734,7 +3737,7 @@
         <v>2.6</v>
       </c>
       <c r="K4">
-        <v>55</v>
+        <v>150</v>
       </c>
       <c r="L4">
         <v>1</v>
@@ -3878,7 +3881,7 @@
         <v>0</v>
       </c>
       <c r="DE4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF4" t="s">
         <v>368</v>
@@ -4070,7 +4073,7 @@
         <v>483</v>
       </c>
       <c r="IN4">
-        <v>72000</v>
+        <v>86400</v>
       </c>
       <c r="IO4">
         <v>1</v>
@@ -4121,7 +4124,7 @@
         <v>0</v>
       </c>
       <c r="JG4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ4">
         <v>0</v>
@@ -4130,7 +4133,7 @@
         <v>0</v>
       </c>
       <c r="JL4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:290">
@@ -4143,11 +4146,11 @@
       <c r="E5">
         <v>20723</v>
       </c>
-      <c r="F5">
-        <v>3</v>
+      <c r="G5">
+        <v>4</v>
       </c>
       <c r="H5">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="I5">
         <v>2</v>
@@ -4156,7 +4159,7 @@
         <v>2.6</v>
       </c>
       <c r="K5">
-        <v>55</v>
+        <v>150</v>
       </c>
       <c r="L5">
         <v>1</v>
@@ -4315,7 +4318,7 @@
         <v>51</v>
       </c>
       <c r="DE5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF5" t="s">
         <v>368</v>
@@ -4654,7 +4657,7 @@
         <v>51</v>
       </c>
       <c r="JG5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ5">
         <v>0</v>
@@ -4663,7 +4666,7 @@
         <v>0</v>
       </c>
       <c r="JL5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JM5" t="s">
         <v>494</v>
@@ -4730,11 +4733,8 @@
       <c r="E6">
         <v>20561</v>
       </c>
-      <c r="F6">
-        <v>3</v>
-      </c>
-      <c r="G6" t="s">
-        <v>328</v>
+      <c r="G6">
+        <v>3</v>
       </c>
       <c r="H6">
         <v>100</v>
@@ -4905,7 +4905,7 @@
         <v>42</v>
       </c>
       <c r="DE6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF6" t="s">
         <v>368</v>
@@ -5133,7 +5133,7 @@
         <v>483</v>
       </c>
       <c r="IN6">
-        <v>43200</v>
+        <v>72000</v>
       </c>
       <c r="IO6">
         <v>1</v>
@@ -5184,7 +5184,7 @@
         <v>0</v>
       </c>
       <c r="JG6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ6">
         <v>0</v>
@@ -5193,7 +5193,7 @@
         <v>0</v>
       </c>
       <c r="JL6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:290">
@@ -5206,7 +5206,7 @@
       <c r="E7">
         <v>20289</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>3</v>
       </c>
       <c r="H7">
@@ -5363,7 +5363,7 @@
         <v>0</v>
       </c>
       <c r="DE7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF7" t="s">
         <v>368</v>
@@ -5555,7 +5555,7 @@
         <v>483</v>
       </c>
       <c r="IN7">
-        <v>86400</v>
+        <v>72000</v>
       </c>
       <c r="IO7">
         <v>1</v>
@@ -5606,7 +5606,7 @@
         <v>0</v>
       </c>
       <c r="JG7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ7">
         <v>0</v>
@@ -5615,7 +5615,7 @@
         <v>0</v>
       </c>
       <c r="JL7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:290">
@@ -5628,11 +5628,11 @@
       <c r="E8">
         <v>20136</v>
       </c>
-      <c r="F8">
-        <v>4</v>
+      <c r="G8">
+        <v>3</v>
       </c>
       <c r="H8">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="I8">
         <v>2</v>
@@ -5641,7 +5641,7 @@
         <v>2.6</v>
       </c>
       <c r="K8">
-        <v>150</v>
+        <v>55</v>
       </c>
       <c r="L8">
         <v>1</v>
@@ -5785,7 +5785,7 @@
         <v>0</v>
       </c>
       <c r="DE8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF8" t="s">
         <v>368</v>
@@ -5977,7 +5977,7 @@
         <v>483</v>
       </c>
       <c r="IN8">
-        <v>86400</v>
+        <v>43200</v>
       </c>
       <c r="IO8">
         <v>1</v>
@@ -6028,7 +6028,7 @@
         <v>0</v>
       </c>
       <c r="JG8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ8">
         <v>0</v>
@@ -6037,7 +6037,7 @@
         <v>0</v>
       </c>
       <c r="JL8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:290">
@@ -6050,7 +6050,7 @@
       <c r="E9">
         <v>19994</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>4</v>
       </c>
       <c r="H9">
@@ -6222,7 +6222,7 @@
         <v>46</v>
       </c>
       <c r="DE9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF9" t="s">
         <v>368</v>
@@ -6504,7 +6504,7 @@
         <v>483</v>
       </c>
       <c r="IN9">
-        <v>57600</v>
+        <v>43200</v>
       </c>
       <c r="IO9">
         <v>1</v>
@@ -6555,7 +6555,7 @@
         <v>0</v>
       </c>
       <c r="JG9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ9">
         <v>0</v>
@@ -6564,7 +6564,7 @@
         <v>0</v>
       </c>
       <c r="JL9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JM9" t="s">
         <v>495</v>
@@ -6604,7 +6604,7 @@
       <c r="E10">
         <v>19849</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>3</v>
       </c>
       <c r="H10">
@@ -6761,7 +6761,7 @@
         <v>0</v>
       </c>
       <c r="DE10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF10" t="s">
         <v>368</v>
@@ -7004,7 +7004,7 @@
         <v>0</v>
       </c>
       <c r="JG10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ10">
         <v>0</v>
@@ -7013,7 +7013,7 @@
         <v>0</v>
       </c>
       <c r="JL10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:290">
@@ -7026,11 +7026,11 @@
       <c r="E11">
         <v>19767</v>
       </c>
-      <c r="F11">
-        <v>4</v>
+      <c r="G11">
+        <v>3</v>
       </c>
       <c r="H11">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="I11">
         <v>2</v>
@@ -7039,7 +7039,7 @@
         <v>2.6</v>
       </c>
       <c r="K11">
-        <v>150</v>
+        <v>55</v>
       </c>
       <c r="L11">
         <v>1</v>
@@ -7183,7 +7183,7 @@
         <v>0</v>
       </c>
       <c r="DE11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF11" t="s">
         <v>368</v>
@@ -7375,7 +7375,7 @@
         <v>483</v>
       </c>
       <c r="IN11">
-        <v>43200</v>
+        <v>86400</v>
       </c>
       <c r="IO11">
         <v>1</v>
@@ -7426,7 +7426,7 @@
         <v>0</v>
       </c>
       <c r="JG11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ11">
         <v>0</v>
@@ -7435,7 +7435,7 @@
         <v>0</v>
       </c>
       <c r="JL11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:290">
@@ -7448,7 +7448,7 @@
       <c r="E12">
         <v>19761</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>4</v>
       </c>
       <c r="H12">
@@ -7620,7 +7620,7 @@
         <v>42</v>
       </c>
       <c r="DE12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF12" t="s">
         <v>368</v>
@@ -7953,7 +7953,7 @@
         <v>0</v>
       </c>
       <c r="JG12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ12">
         <v>0</v>
@@ -7962,7 +7962,7 @@
         <v>0</v>
       </c>
       <c r="JL12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JM12" t="s">
         <v>496</v>
@@ -8029,7 +8029,7 @@
       <c r="E13">
         <v>19686</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>3</v>
       </c>
       <c r="H13">
@@ -8201,7 +8201,7 @@
         <v>56</v>
       </c>
       <c r="DE13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF13" t="s">
         <v>368</v>
@@ -8483,7 +8483,7 @@
         <v>483</v>
       </c>
       <c r="IN13">
-        <v>86400</v>
+        <v>43200</v>
       </c>
       <c r="IO13">
         <v>1</v>
@@ -8534,7 +8534,7 @@
         <v>0</v>
       </c>
       <c r="JG13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ13">
         <v>0</v>
@@ -8543,7 +8543,7 @@
         <v>0</v>
       </c>
       <c r="JL13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:290">
@@ -8556,7 +8556,10 @@
       <c r="E14">
         <v>19522</v>
       </c>
-      <c r="F14">
+      <c r="F14" t="s">
+        <v>328</v>
+      </c>
+      <c r="G14">
         <v>3</v>
       </c>
       <c r="H14">
@@ -8728,7 +8731,7 @@
         <v>51</v>
       </c>
       <c r="DE14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF14" t="s">
         <v>368</v>
@@ -8983,7 +8986,7 @@
         <v>483</v>
       </c>
       <c r="IN14">
-        <v>72000</v>
+        <v>43200</v>
       </c>
       <c r="IO14">
         <v>1</v>
@@ -9034,7 +9037,7 @@
         <v>0</v>
       </c>
       <c r="JG14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ14">
         <v>0</v>
@@ -9043,7 +9046,7 @@
         <v>0</v>
       </c>
       <c r="JL14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:290">
@@ -9056,11 +9059,11 @@
       <c r="E15">
         <v>19414</v>
       </c>
-      <c r="F15">
-        <v>3</v>
+      <c r="G15">
+        <v>4</v>
       </c>
       <c r="H15">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="I15">
         <v>2</v>
@@ -9069,7 +9072,7 @@
         <v>2.6</v>
       </c>
       <c r="K15">
-        <v>55</v>
+        <v>150</v>
       </c>
       <c r="L15">
         <v>1</v>
@@ -9213,7 +9216,7 @@
         <v>0</v>
       </c>
       <c r="DE15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF15" t="s">
         <v>368</v>
@@ -9456,7 +9459,7 @@
         <v>0</v>
       </c>
       <c r="JG15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ15">
         <v>0</v>
@@ -9465,7 +9468,7 @@
         <v>0</v>
       </c>
       <c r="JL15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:290">
@@ -9478,11 +9481,11 @@
       <c r="E16">
         <v>19288</v>
       </c>
-      <c r="F16">
-        <v>3</v>
+      <c r="G16">
+        <v>4</v>
       </c>
       <c r="H16">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="I16">
         <v>2</v>
@@ -9491,7 +9494,7 @@
         <v>2.6</v>
       </c>
       <c r="K16">
-        <v>55</v>
+        <v>150</v>
       </c>
       <c r="L16">
         <v>1</v>
@@ -9650,7 +9653,7 @@
         <v>45</v>
       </c>
       <c r="DE16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF16" t="s">
         <v>368</v>
@@ -9932,7 +9935,7 @@
         <v>483</v>
       </c>
       <c r="IN16">
-        <v>43200</v>
+        <v>57600</v>
       </c>
       <c r="IO16">
         <v>1</v>
@@ -9989,7 +9992,7 @@
         <v>45</v>
       </c>
       <c r="JG16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ16">
         <v>0</v>
@@ -9998,7 +10001,7 @@
         <v>0</v>
       </c>
       <c r="JL16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:281">
@@ -10011,7 +10014,7 @@
       <c r="E17">
         <v>19210</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>4</v>
       </c>
       <c r="H17">
@@ -10183,7 +10186,7 @@
         <v>45</v>
       </c>
       <c r="DE17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF17" t="s">
         <v>368</v>
@@ -10438,7 +10441,7 @@
         <v>483</v>
       </c>
       <c r="IN17">
-        <v>72000</v>
+        <v>57600</v>
       </c>
       <c r="IO17">
         <v>1</v>
@@ -10489,7 +10492,7 @@
         <v>0</v>
       </c>
       <c r="JG17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ17">
         <v>0</v>
@@ -10498,7 +10501,7 @@
         <v>0</v>
       </c>
       <c r="JL17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:281">
@@ -10511,11 +10514,11 @@
       <c r="E18">
         <v>19147</v>
       </c>
-      <c r="F18">
-        <v>4</v>
+      <c r="G18">
+        <v>3</v>
       </c>
       <c r="H18">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="I18">
         <v>2</v>
@@ -10524,7 +10527,7 @@
         <v>2.6</v>
       </c>
       <c r="K18">
-        <v>150</v>
+        <v>55</v>
       </c>
       <c r="L18">
         <v>1</v>
@@ -10668,7 +10671,7 @@
         <v>0</v>
       </c>
       <c r="DE18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF18" t="s">
         <v>368</v>
@@ -10860,7 +10863,7 @@
         <v>483</v>
       </c>
       <c r="IN18">
-        <v>86400</v>
+        <v>57600</v>
       </c>
       <c r="IO18">
         <v>1</v>
@@ -10911,7 +10914,7 @@
         <v>0</v>
       </c>
       <c r="JG18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ18">
         <v>0</v>
@@ -10920,7 +10923,7 @@
         <v>0</v>
       </c>
       <c r="JL18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:281">
@@ -10933,11 +10936,8 @@
       <c r="E19">
         <v>19040</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>4</v>
-      </c>
-      <c r="G19" t="s">
-        <v>328</v>
       </c>
       <c r="H19">
         <v>130</v>
@@ -11093,7 +11093,7 @@
         <v>0</v>
       </c>
       <c r="DE19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF19" t="s">
         <v>368</v>
@@ -11285,7 +11285,7 @@
         <v>483</v>
       </c>
       <c r="IN19">
-        <v>86400</v>
+        <v>43200</v>
       </c>
       <c r="IO19">
         <v>1</v>
@@ -11336,7 +11336,7 @@
         <v>0</v>
       </c>
       <c r="JG19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ19">
         <v>0</v>
@@ -11345,7 +11345,7 @@
         <v>0</v>
       </c>
       <c r="JL19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:281">
@@ -11358,7 +11358,10 @@
       <c r="E20">
         <v>18552</v>
       </c>
-      <c r="F20">
+      <c r="F20" t="s">
+        <v>328</v>
+      </c>
+      <c r="G20">
         <v>3</v>
       </c>
       <c r="H20">
@@ -11530,7 +11533,7 @@
         <v>47</v>
       </c>
       <c r="DE20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF20" t="s">
         <v>368</v>
@@ -11785,7 +11788,7 @@
         <v>483</v>
       </c>
       <c r="IN20">
-        <v>57600</v>
+        <v>72000</v>
       </c>
       <c r="IO20">
         <v>1</v>
@@ -11836,7 +11839,7 @@
         <v>0</v>
       </c>
       <c r="JG20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ20">
         <v>0</v>
@@ -11845,7 +11848,7 @@
         <v>0</v>
       </c>
       <c r="JL20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:281">
@@ -11858,11 +11861,11 @@
       <c r="E21">
         <v>18493</v>
       </c>
-      <c r="F21">
-        <v>4</v>
+      <c r="G21">
+        <v>3</v>
       </c>
       <c r="H21">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="I21">
         <v>2</v>
@@ -11871,7 +11874,7 @@
         <v>2.6</v>
       </c>
       <c r="K21">
-        <v>150</v>
+        <v>55</v>
       </c>
       <c r="L21">
         <v>1</v>
@@ -12030,7 +12033,7 @@
         <v>45</v>
       </c>
       <c r="DE21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF21" t="s">
         <v>368</v>
@@ -12285,7 +12288,7 @@
         <v>483</v>
       </c>
       <c r="IN21">
-        <v>86400</v>
+        <v>43200</v>
       </c>
       <c r="IO21">
         <v>1</v>
@@ -12336,7 +12339,7 @@
         <v>0</v>
       </c>
       <c r="JG21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ21">
         <v>0</v>
@@ -12345,7 +12348,7 @@
         <v>0</v>
       </c>
       <c r="JL21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:281">
@@ -12358,11 +12361,11 @@
       <c r="E22">
         <v>18160</v>
       </c>
-      <c r="F22">
-        <v>4</v>
+      <c r="G22">
+        <v>3</v>
       </c>
       <c r="H22">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="I22">
         <v>2</v>
@@ -12371,7 +12374,7 @@
         <v>2.6</v>
       </c>
       <c r="K22">
-        <v>150</v>
+        <v>55</v>
       </c>
       <c r="L22">
         <v>1</v>
@@ -12515,7 +12518,7 @@
         <v>0</v>
       </c>
       <c r="DE22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF22" t="s">
         <v>368</v>
@@ -12758,7 +12761,7 @@
         <v>0</v>
       </c>
       <c r="JG22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ22">
         <v>0</v>
@@ -12767,7 +12770,7 @@
         <v>0</v>
       </c>
       <c r="JL22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:281">
@@ -12780,7 +12783,7 @@
       <c r="E23">
         <v>17736</v>
       </c>
-      <c r="F23">
+      <c r="G23">
         <v>4</v>
       </c>
       <c r="H23">
@@ -12952,7 +12955,7 @@
         <v>90</v>
       </c>
       <c r="DE23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF23" t="s">
         <v>368</v>
@@ -13291,7 +13294,7 @@
         <v>43</v>
       </c>
       <c r="JG23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JH23">
         <v>2800</v>
@@ -13306,7 +13309,7 @@
         <v>43</v>
       </c>
       <c r="JL23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JM23" t="s">
         <v>497</v>
@@ -13346,11 +13349,11 @@
       <c r="E24">
         <v>17231</v>
       </c>
-      <c r="F24">
-        <v>3</v>
+      <c r="G24">
+        <v>4</v>
       </c>
       <c r="H24">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="I24">
         <v>2</v>
@@ -13359,7 +13362,7 @@
         <v>2.6</v>
       </c>
       <c r="K24">
-        <v>55</v>
+        <v>150</v>
       </c>
       <c r="L24">
         <v>1</v>
@@ -13518,7 +13521,7 @@
         <v>41</v>
       </c>
       <c r="DE24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF24" t="s">
         <v>368</v>
@@ -13773,7 +13776,7 @@
         <v>483</v>
       </c>
       <c r="IN24">
-        <v>72000</v>
+        <v>43200</v>
       </c>
       <c r="IO24">
         <v>1</v>
@@ -13824,7 +13827,7 @@
         <v>0</v>
       </c>
       <c r="JG24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ24">
         <v>0</v>
@@ -13833,7 +13836,7 @@
         <v>0</v>
       </c>
       <c r="JL24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:281">
@@ -13846,11 +13849,11 @@
       <c r="E25">
         <v>17130</v>
       </c>
-      <c r="F25">
-        <v>3</v>
+      <c r="G25">
+        <v>4</v>
       </c>
       <c r="H25">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="I25">
         <v>2</v>
@@ -13859,7 +13862,7 @@
         <v>2.6</v>
       </c>
       <c r="K25">
-        <v>55</v>
+        <v>150</v>
       </c>
       <c r="L25">
         <v>1</v>
@@ -14018,7 +14021,7 @@
         <v>71</v>
       </c>
       <c r="DE25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF25" t="s">
         <v>368</v>
@@ -14273,7 +14276,7 @@
         <v>483</v>
       </c>
       <c r="IN25">
-        <v>72000</v>
+        <v>57600</v>
       </c>
       <c r="IO25">
         <v>1</v>
@@ -14324,7 +14327,7 @@
         <v>0</v>
       </c>
       <c r="JG25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ25">
         <v>0</v>
@@ -14333,7 +14336,7 @@
         <v>0</v>
       </c>
       <c r="JL25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:281">
@@ -14346,7 +14349,7 @@
       <c r="E26">
         <v>17042</v>
       </c>
-      <c r="F26">
+      <c r="G26">
         <v>3</v>
       </c>
       <c r="H26">
@@ -14518,7 +14521,7 @@
         <v>52</v>
       </c>
       <c r="DE26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF26" t="s">
         <v>368</v>
@@ -14800,7 +14803,7 @@
         <v>483</v>
       </c>
       <c r="IN26">
-        <v>86400</v>
+        <v>43200</v>
       </c>
       <c r="IO26">
         <v>1</v>
@@ -14857,7 +14860,7 @@
         <v>52</v>
       </c>
       <c r="JG26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ26">
         <v>0</v>
@@ -14866,7 +14869,7 @@
         <v>0</v>
       </c>
       <c r="JL26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:281">
@@ -14879,14 +14882,11 @@
       <c r="E27">
         <v>16829</v>
       </c>
-      <c r="F27">
-        <v>3</v>
-      </c>
-      <c r="G27" t="s">
-        <v>328</v>
+      <c r="G27">
+        <v>4</v>
       </c>
       <c r="H27">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="I27">
         <v>2</v>
@@ -14895,7 +14895,7 @@
         <v>2.6</v>
       </c>
       <c r="K27">
-        <v>55</v>
+        <v>150</v>
       </c>
       <c r="L27">
         <v>1</v>
@@ -15054,7 +15054,7 @@
         <v>52</v>
       </c>
       <c r="DE27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF27" t="s">
         <v>368</v>
@@ -15336,7 +15336,7 @@
         <v>483</v>
       </c>
       <c r="IN27">
-        <v>72000</v>
+        <v>86400</v>
       </c>
       <c r="IO27">
         <v>1</v>
@@ -15387,7 +15387,7 @@
         <v>0</v>
       </c>
       <c r="JG27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ27">
         <v>0</v>
@@ -15396,7 +15396,7 @@
         <v>0</v>
       </c>
       <c r="JL27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:281">
@@ -15409,7 +15409,10 @@
       <c r="E28">
         <v>15953</v>
       </c>
-      <c r="F28">
+      <c r="F28" t="s">
+        <v>328</v>
+      </c>
+      <c r="G28">
         <v>4</v>
       </c>
       <c r="H28">
@@ -15581,7 +15584,7 @@
         <v>55</v>
       </c>
       <c r="DE28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF28" t="s">
         <v>368</v>
@@ -15863,7 +15866,7 @@
         <v>483</v>
       </c>
       <c r="IN28">
-        <v>72000</v>
+        <v>43200</v>
       </c>
       <c r="IO28">
         <v>1</v>
@@ -15920,7 +15923,7 @@
         <v>55</v>
       </c>
       <c r="JG28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ28">
         <v>0</v>
@@ -15929,7 +15932,7 @@
         <v>0</v>
       </c>
       <c r="JL28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:281">
@@ -15942,7 +15945,7 @@
       <c r="E29">
         <v>15873</v>
       </c>
-      <c r="F29">
+      <c r="G29">
         <v>3</v>
       </c>
       <c r="H29">
@@ -16114,7 +16117,7 @@
         <v>90</v>
       </c>
       <c r="DE29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF29" t="s">
         <v>368</v>
@@ -16399,7 +16402,7 @@
         <v>57</v>
       </c>
       <c r="JG29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ29">
         <v>0</v>
@@ -16408,7 +16411,7 @@
         <v>0</v>
       </c>
       <c r="JL29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:281">
@@ -16421,7 +16424,7 @@
       <c r="E30">
         <v>15855</v>
       </c>
-      <c r="F30">
+      <c r="G30">
         <v>3</v>
       </c>
       <c r="H30">
@@ -16578,7 +16581,7 @@
         <v>0</v>
       </c>
       <c r="DE30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF30" t="s">
         <v>368</v>
@@ -16821,7 +16824,7 @@
         <v>0</v>
       </c>
       <c r="JG30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ30">
         <v>0</v>
@@ -16830,7 +16833,7 @@
         <v>0</v>
       </c>
       <c r="JL30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:281">
@@ -16843,11 +16846,11 @@
       <c r="E31">
         <v>15737</v>
       </c>
-      <c r="F31">
-        <v>4</v>
+      <c r="G31">
+        <v>3</v>
       </c>
       <c r="H31">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="I31">
         <v>2</v>
@@ -16856,7 +16859,7 @@
         <v>2.6</v>
       </c>
       <c r="K31">
-        <v>150</v>
+        <v>55</v>
       </c>
       <c r="L31">
         <v>1</v>
@@ -17000,7 +17003,7 @@
         <v>0</v>
       </c>
       <c r="DE31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF31" t="s">
         <v>368</v>
@@ -17192,7 +17195,7 @@
         <v>483</v>
       </c>
       <c r="IN31">
-        <v>57600</v>
+        <v>43200</v>
       </c>
       <c r="IO31">
         <v>1</v>
@@ -17243,7 +17246,7 @@
         <v>0</v>
       </c>
       <c r="JG31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ31">
         <v>0</v>
@@ -17252,7 +17255,7 @@
         <v>0</v>
       </c>
       <c r="JL31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:281">
@@ -17265,7 +17268,7 @@
       <c r="E32">
         <v>15583</v>
       </c>
-      <c r="F32">
+      <c r="G32">
         <v>3</v>
       </c>
       <c r="H32">
@@ -17422,7 +17425,7 @@
         <v>0</v>
       </c>
       <c r="DE32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF32" t="s">
         <v>368</v>
@@ -17614,7 +17617,7 @@
         <v>483</v>
       </c>
       <c r="IN32">
-        <v>86400</v>
+        <v>57600</v>
       </c>
       <c r="IO32">
         <v>1</v>
@@ -17665,7 +17668,7 @@
         <v>0</v>
       </c>
       <c r="JG32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ32">
         <v>0</v>
@@ -17674,7 +17677,7 @@
         <v>0</v>
       </c>
       <c r="JL32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:290">
@@ -17687,11 +17690,14 @@
       <c r="E33">
         <v>14594</v>
       </c>
-      <c r="F33">
-        <v>4</v>
+      <c r="F33" t="s">
+        <v>328</v>
+      </c>
+      <c r="G33">
+        <v>3</v>
       </c>
       <c r="H33">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="I33">
         <v>2</v>
@@ -17700,7 +17706,7 @@
         <v>2.6</v>
       </c>
       <c r="K33">
-        <v>150</v>
+        <v>55</v>
       </c>
       <c r="L33">
         <v>1</v>
@@ -17844,7 +17850,7 @@
         <v>0</v>
       </c>
       <c r="DE33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF33" t="s">
         <v>368</v>
@@ -18036,7 +18042,7 @@
         <v>483</v>
       </c>
       <c r="IN33">
-        <v>43200</v>
+        <v>57600</v>
       </c>
       <c r="IO33">
         <v>1</v>
@@ -18087,7 +18093,7 @@
         <v>0</v>
       </c>
       <c r="JG33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ33">
         <v>0</v>
@@ -18096,7 +18102,7 @@
         <v>0</v>
       </c>
       <c r="JL33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:290">
@@ -18109,14 +18115,11 @@
       <c r="E34">
         <v>14561</v>
       </c>
-      <c r="F34">
-        <v>3</v>
-      </c>
-      <c r="G34" t="s">
-        <v>328</v>
+      <c r="G34">
+        <v>4</v>
       </c>
       <c r="H34">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="I34">
         <v>2</v>
@@ -18125,7 +18128,7 @@
         <v>2.6</v>
       </c>
       <c r="K34">
-        <v>55</v>
+        <v>150</v>
       </c>
       <c r="L34">
         <v>1</v>
@@ -18284,7 +18287,7 @@
         <v>52</v>
       </c>
       <c r="DE34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF34" t="s">
         <v>368</v>
@@ -18617,7 +18620,7 @@
         <v>0</v>
       </c>
       <c r="JG34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ34">
         <v>0</v>
@@ -18626,7 +18629,7 @@
         <v>0</v>
       </c>
       <c r="JL34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JM34" t="s">
         <v>498</v>
@@ -18693,7 +18696,7 @@
       <c r="E35">
         <v>14145</v>
       </c>
-      <c r="F35">
+      <c r="G35">
         <v>4</v>
       </c>
       <c r="H35">
@@ -18850,7 +18853,7 @@
         <v>0</v>
       </c>
       <c r="DE35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF35" t="s">
         <v>368</v>
@@ -19042,7 +19045,7 @@
         <v>483</v>
       </c>
       <c r="IN35">
-        <v>43200</v>
+        <v>57600</v>
       </c>
       <c r="IO35">
         <v>1</v>
@@ -19093,7 +19096,7 @@
         <v>0</v>
       </c>
       <c r="JG35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ35">
         <v>0</v>
@@ -19102,7 +19105,7 @@
         <v>0</v>
       </c>
       <c r="JL35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:290">
@@ -19115,11 +19118,11 @@
       <c r="E36">
         <v>14125</v>
       </c>
-      <c r="F36">
-        <v>4</v>
+      <c r="G36">
+        <v>3</v>
       </c>
       <c r="H36">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="I36">
         <v>2</v>
@@ -19128,7 +19131,7 @@
         <v>2.6</v>
       </c>
       <c r="K36">
-        <v>150</v>
+        <v>55</v>
       </c>
       <c r="L36">
         <v>1</v>
@@ -19287,7 +19290,7 @@
         <v>45</v>
       </c>
       <c r="DE36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF36" t="s">
         <v>368</v>
@@ -19620,7 +19623,7 @@
         <v>0</v>
       </c>
       <c r="JG36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ36">
         <v>0</v>
@@ -19629,7 +19632,7 @@
         <v>0</v>
       </c>
       <c r="JL36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:290">
@@ -19642,7 +19645,7 @@
       <c r="E37">
         <v>14119</v>
       </c>
-      <c r="F37">
+      <c r="G37">
         <v>4</v>
       </c>
       <c r="H37">
@@ -19799,7 +19802,7 @@
         <v>0</v>
       </c>
       <c r="DE37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF37" t="s">
         <v>368</v>
@@ -19991,7 +19994,7 @@
         <v>483</v>
       </c>
       <c r="IN37">
-        <v>57600</v>
+        <v>43200</v>
       </c>
       <c r="IO37">
         <v>1</v>
@@ -20042,7 +20045,7 @@
         <v>0</v>
       </c>
       <c r="JG37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ37">
         <v>0</v>
@@ -20051,7 +20054,7 @@
         <v>0</v>
       </c>
       <c r="JL37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:290">
@@ -20064,7 +20067,7 @@
       <c r="E38">
         <v>13668</v>
       </c>
-      <c r="F38">
+      <c r="G38">
         <v>4</v>
       </c>
       <c r="H38">
@@ -20236,7 +20239,7 @@
         <v>60</v>
       </c>
       <c r="DE38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF38" t="s">
         <v>368</v>
@@ -20518,7 +20521,7 @@
         <v>483</v>
       </c>
       <c r="IN38">
-        <v>72000</v>
+        <v>43200</v>
       </c>
       <c r="IO38">
         <v>1</v>
@@ -20569,7 +20572,7 @@
         <v>0</v>
       </c>
       <c r="JG38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ38">
         <v>0</v>
@@ -20578,7 +20581,7 @@
         <v>0</v>
       </c>
       <c r="JL38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:290">
@@ -20591,11 +20594,8 @@
       <c r="E39">
         <v>13273</v>
       </c>
-      <c r="F39">
+      <c r="G39">
         <v>4</v>
-      </c>
-      <c r="G39" t="s">
-        <v>328</v>
       </c>
       <c r="H39">
         <v>130</v>
@@ -20766,7 +20766,7 @@
         <v>50</v>
       </c>
       <c r="DE39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF39" t="s">
         <v>368</v>
@@ -21048,7 +21048,7 @@
         <v>483</v>
       </c>
       <c r="IN39">
-        <v>43200</v>
+        <v>86400</v>
       </c>
       <c r="IO39">
         <v>1</v>
@@ -21105,7 +21105,7 @@
         <v>50</v>
       </c>
       <c r="JG39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ39">
         <v>0</v>
@@ -21114,7 +21114,7 @@
         <v>0</v>
       </c>
       <c r="JL39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:290">
@@ -21127,7 +21127,7 @@
       <c r="E40">
         <v>13127</v>
       </c>
-      <c r="F40">
+      <c r="G40">
         <v>3</v>
       </c>
       <c r="H40">
@@ -21299,7 +21299,7 @@
         <v>52</v>
       </c>
       <c r="DE40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF40" t="s">
         <v>368</v>
@@ -21581,7 +21581,7 @@
         <v>483</v>
       </c>
       <c r="IN40">
-        <v>86400</v>
+        <v>43200</v>
       </c>
       <c r="IO40">
         <v>1</v>
@@ -21632,7 +21632,7 @@
         <v>0</v>
       </c>
       <c r="JG40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ40">
         <v>0</v>
@@ -21641,7 +21641,7 @@
         <v>0</v>
       </c>
       <c r="JL40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -21674,7 +21674,7 @@
         <v>502</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>503</v>
@@ -21793,7 +21793,7 @@
         <v>483</v>
       </c>
       <c r="S2">
-        <v>72000</v>
+        <v>43200</v>
       </c>
       <c r="T2">
         <v>1</v>
